--- a/notas_planilha_modelo.xlsx
+++ b/notas_planilha_modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021\2021.2\Checkpoint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandroyyy\OneDrive\Fiap\Aula Logica\ponto extra\Entrega-CTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="892" documentId="13_ncr:1_{58BD6E4B-0281-44E9-A67B-26FBD234601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28BEAE16-EAE0-4CE3-90FD-32F3BA5FFDEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB933B7-C6D3-40EC-809C-843FAF7E6365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEC9B240-086D-4A5F-970A-55B671366498}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AEC9B240-086D-4A5F-970A-55B671366498}"/>
   </bookViews>
   <sheets>
     <sheet name="arquivo_modelo" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,11 +313,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF4472C4"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -334,12 +329,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF4472C4"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -347,12 +336,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -366,7 +349,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,34 +382,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -903,328 +869,308 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1541,31 +1487,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A175AD0E-438F-491D-98EF-05FF36FEA0E7}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" customWidth="1"/>
-    <col min="9" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.28515625" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21">
+    <row r="1" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,22 +1515,19 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="E2" s="122" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="125"/>
-    </row>
-    <row r="3" spans="1:17" ht="25.5">
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1599,1826 +1537,1567 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="20" t="s">
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="98" t="s">
+      <c r="K3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="L3" s="87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="23">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>8001</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>6</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="110">
+      <c r="D4" s="99">
         <v>10</v>
       </c>
-      <c r="F4" s="111">
+      <c r="E4" s="100">
         <v>6</v>
       </c>
-      <c r="G4" s="112">
+      <c r="F4" s="101">
         <v>9</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26">
+      <c r="G4" s="23">
         <v>8.5</v>
       </c>
-      <c r="J4" s="27">
+      <c r="H4" s="24">
         <v>10</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="99"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75">
-      <c r="A5" s="22">
+      <c r="I4" s="91"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>8002</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="30">
-        <v>7</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="113">
-        <v>8</v>
-      </c>
-      <c r="F5" s="114">
+      <c r="C5" s="26">
+        <v>7</v>
+      </c>
+      <c r="D5" s="102">
+        <v>8</v>
+      </c>
+      <c r="E5" s="103">
         <v>5</v>
       </c>
-      <c r="G5" s="115">
+      <c r="F5" s="104">
         <v>9</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="31">
+      <c r="G5" s="27">
         <v>9</v>
       </c>
-      <c r="J5" s="32">
+      <c r="H5" s="28">
         <v>6</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="35"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75">
-      <c r="A6" s="22">
+      <c r="I5" s="92"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>8003</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="113">
+      <c r="D6" s="102">
         <v>6</v>
       </c>
-      <c r="F6" s="114">
+      <c r="E6" s="103">
         <v>5</v>
       </c>
-      <c r="G6" s="115">
+      <c r="F6" s="104">
         <v>10</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="36">
+      <c r="G6" s="32">
         <v>3</v>
       </c>
-      <c r="J6" s="32">
-        <v>8</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="35"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75">
-      <c r="A7" s="22">
+      <c r="H6" s="28">
+        <v>8</v>
+      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
         <v>8004</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="30">
-        <v>8</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="113">
+      <c r="C7" s="26">
+        <v>8</v>
+      </c>
+      <c r="D7" s="102">
         <v>9.5</v>
       </c>
-      <c r="F7" s="116">
-        <v>7</v>
-      </c>
-      <c r="G7" s="115">
-        <v>7</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="36">
+      <c r="E7" s="105">
+        <v>7</v>
+      </c>
+      <c r="F7" s="104">
+        <v>7</v>
+      </c>
+      <c r="G7" s="32">
         <v>5</v>
       </c>
-      <c r="J7" s="37">
+      <c r="H7" s="33">
         <v>4</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="35"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75">
-      <c r="A8" s="22">
+      <c r="I7" s="92"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
         <v>8005</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30">
-        <v>7</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="113">
-        <v>7</v>
-      </c>
-      <c r="F8" s="116">
+      <c r="C8" s="26">
+        <v>7</v>
+      </c>
+      <c r="D8" s="102">
+        <v>7</v>
+      </c>
+      <c r="E8" s="105">
         <v>8.5</v>
       </c>
-      <c r="G8" s="115">
-        <v>8</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="31">
+      <c r="F8" s="104">
+        <v>8</v>
+      </c>
+      <c r="G8" s="27">
         <v>10</v>
       </c>
-      <c r="J8" s="32">
-        <v>7</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="35"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75">
-      <c r="A9" s="38">
+      <c r="H8" s="28">
+        <v>7</v>
+      </c>
+      <c r="I8" s="92"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
         <v>8006</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="35">
         <v>6</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41">
+      <c r="D9" s="36">
         <v>6</v>
       </c>
-      <c r="F9" s="42">
+      <c r="E9" s="37">
         <v>9</v>
       </c>
-      <c r="G9" s="43">
+      <c r="F9" s="38">
         <v>7.5</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="41">
-        <v>8</v>
-      </c>
-      <c r="J9" s="43">
-        <v>8</v>
-      </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="48"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75">
-      <c r="A10" s="38">
+      <c r="G9" s="36">
+        <v>8</v>
+      </c>
+      <c r="H9" s="38">
+        <v>8</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
         <v>8007</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="39">
-        <v>8</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="49">
+      <c r="C10" s="35">
+        <v>8</v>
+      </c>
+      <c r="D10" s="42">
         <v>3</v>
       </c>
-      <c r="F10" s="42">
+      <c r="E10" s="37">
         <v>7.5</v>
       </c>
-      <c r="G10" s="43">
+      <c r="F10" s="38">
         <v>10</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="41">
-        <v>7</v>
-      </c>
-      <c r="J10" s="43">
+      <c r="G10" s="36">
+        <v>7</v>
+      </c>
+      <c r="H10" s="38">
         <v>9</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="48"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75">
-      <c r="A11" s="38">
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
         <v>8008</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="35">
         <v>6.5</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41">
-        <v>8</v>
-      </c>
-      <c r="F11" s="54">
+      <c r="D11" s="36">
+        <v>8</v>
+      </c>
+      <c r="E11" s="47">
         <v>5</v>
       </c>
-      <c r="G11" s="43">
+      <c r="F11" s="38">
         <v>9</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="41">
+      <c r="G11" s="36">
         <v>6.5</v>
       </c>
-      <c r="J11" s="43">
-        <v>8</v>
-      </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="48"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75">
-      <c r="A12" s="38">
+      <c r="H11" s="38">
+        <v>8</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
         <v>8009</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="39">
-        <v>8</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41">
+      <c r="C12" s="35">
+        <v>8</v>
+      </c>
+      <c r="D12" s="36">
         <v>9</v>
       </c>
-      <c r="F12" s="54">
+      <c r="E12" s="47">
         <v>5.5</v>
       </c>
-      <c r="G12" s="43">
+      <c r="F12" s="38">
         <v>6</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="41">
-        <v>7</v>
-      </c>
-      <c r="J12" s="43">
-        <v>8</v>
-      </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="48"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75">
-      <c r="A13" s="38">
+      <c r="G12" s="36">
+        <v>7</v>
+      </c>
+      <c r="H12" s="38">
+        <v>8</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
         <v>8010</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="44">
         <v>5</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41">
+      <c r="D13" s="36">
         <v>9</v>
       </c>
-      <c r="F13" s="42">
+      <c r="E13" s="37">
         <v>8.5</v>
       </c>
-      <c r="G13" s="43">
-        <v>8</v>
-      </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="41">
+      <c r="F13" s="38">
+        <v>8</v>
+      </c>
+      <c r="G13" s="36">
         <v>10</v>
       </c>
-      <c r="J13" s="52">
+      <c r="H13" s="45">
         <v>4</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="48"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75">
-      <c r="A14" s="38">
+      <c r="I13" s="46"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
         <v>8011</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="35">
         <v>9.5</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41">
+      <c r="D14" s="36">
         <v>10</v>
       </c>
-      <c r="F14" s="54">
+      <c r="E14" s="47">
         <v>4</v>
       </c>
-      <c r="G14" s="43">
-        <v>8</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="49">
+      <c r="F14" s="38">
+        <v>8</v>
+      </c>
+      <c r="G14" s="42">
         <v>5.5</v>
       </c>
-      <c r="J14" s="43">
-        <v>7</v>
-      </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="48"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="38">
+      <c r="H14" s="38">
+        <v>7</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
         <v>8012</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="35">
         <v>9</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41">
+      <c r="D15" s="36">
         <v>6.5</v>
       </c>
-      <c r="F15" s="42">
+      <c r="E15" s="37">
         <v>7.5</v>
       </c>
-      <c r="G15" s="43">
+      <c r="F15" s="38">
         <v>9</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="41">
-        <v>8</v>
-      </c>
-      <c r="J15" s="43">
+      <c r="G15" s="36">
+        <v>8</v>
+      </c>
+      <c r="H15" s="38">
         <v>6</v>
       </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="48"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75">
-      <c r="A16" s="38">
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
         <v>8013</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="39">
-        <v>8</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41">
-        <v>7</v>
-      </c>
-      <c r="F16" s="42">
+      <c r="C16" s="35">
+        <v>8</v>
+      </c>
+      <c r="D16" s="36">
+        <v>7</v>
+      </c>
+      <c r="E16" s="37">
         <v>6</v>
       </c>
-      <c r="G16" s="52">
+      <c r="F16" s="45">
         <v>5.5</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="41">
-        <v>7</v>
-      </c>
-      <c r="J16" s="43">
+      <c r="G16" s="36">
+        <v>7</v>
+      </c>
+      <c r="H16" s="38">
         <v>8.5</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="48"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75">
-      <c r="A17" s="38">
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
         <v>8014</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="39">
-        <v>7</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41">
+      <c r="C17" s="35">
+        <v>7</v>
+      </c>
+      <c r="D17" s="36">
         <v>9</v>
       </c>
-      <c r="F17" s="42">
+      <c r="E17" s="37">
         <v>6.5</v>
       </c>
-      <c r="G17" s="43">
-        <v>7</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="41">
-        <v>8</v>
-      </c>
-      <c r="J17" s="52">
+      <c r="F17" s="38">
+        <v>7</v>
+      </c>
+      <c r="G17" s="36">
+        <v>8</v>
+      </c>
+      <c r="H17" s="45">
         <v>4</v>
       </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="48"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75">
-      <c r="A18" s="38">
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
         <v>8015</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="39">
-        <v>8</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41" t="s">
+      <c r="C18" s="35">
+        <v>8</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="42">
+      <c r="E18" s="37">
         <v>10</v>
       </c>
-      <c r="G18" s="43">
-        <v>8</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="49">
+      <c r="F18" s="38">
+        <v>8</v>
+      </c>
+      <c r="G18" s="42">
         <v>3</v>
       </c>
-      <c r="J18" s="43">
-        <v>8</v>
-      </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="48"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75">
-      <c r="A19" s="38">
+      <c r="H18" s="38">
+        <v>8</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
         <v>8016</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="44">
         <v>5</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="49">
+      <c r="D19" s="42">
         <v>4</v>
       </c>
-      <c r="F19" s="54">
+      <c r="E19" s="47">
         <v>4</v>
       </c>
-      <c r="G19" s="43">
-        <v>8</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="49">
+      <c r="F19" s="38">
+        <v>8</v>
+      </c>
+      <c r="G19" s="42">
         <v>5</v>
       </c>
-      <c r="J19" s="52">
+      <c r="H19" s="45">
         <v>5</v>
       </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="48"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75">
-      <c r="A20" s="38">
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
         <v>8017</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="35">
         <v>9</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41">
-        <v>7</v>
-      </c>
-      <c r="F20" s="54">
+      <c r="D20" s="36">
+        <v>7</v>
+      </c>
+      <c r="E20" s="47">
         <v>4.5</v>
       </c>
-      <c r="G20" s="43">
+      <c r="F20" s="38">
         <v>10</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="41">
-        <v>7</v>
-      </c>
-      <c r="J20" s="43">
+      <c r="G20" s="36">
+        <v>7</v>
+      </c>
+      <c r="H20" s="38">
         <v>9</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="48"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75">
-      <c r="A21" s="38">
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
         <v>8018</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="44">
         <v>5.5</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="49">
+      <c r="D21" s="42">
         <v>5.5</v>
       </c>
-      <c r="F21" s="42">
+      <c r="E21" s="37">
         <v>6</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="F21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="42">
         <v>2</v>
       </c>
-      <c r="J21" s="43">
+      <c r="H21" s="38">
         <v>9.5</v>
       </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46" t="s">
+      <c r="I21" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="48"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75">
-      <c r="A22" s="38">
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
         <v>8019</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="35">
         <v>6.5</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="49">
+      <c r="D22" s="42">
         <v>5.5</v>
       </c>
-      <c r="F22" s="42">
-        <v>7</v>
-      </c>
-      <c r="G22" s="43">
-        <v>8</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="49">
+      <c r="E22" s="37">
+        <v>7</v>
+      </c>
+      <c r="F22" s="38">
+        <v>8</v>
+      </c>
+      <c r="G22" s="42">
         <v>5</v>
       </c>
-      <c r="J22" s="43">
+      <c r="H22" s="38">
         <v>10</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="48"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75">
-      <c r="A23" s="38">
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
         <v>8020</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="39">
-        <v>7</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41">
+      <c r="C23" s="35">
+        <v>7</v>
+      </c>
+      <c r="D23" s="36">
         <v>9</v>
       </c>
-      <c r="F23" s="54">
+      <c r="E23" s="47">
         <v>4</v>
       </c>
-      <c r="G23" s="43">
+      <c r="F23" s="38">
         <v>6</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="41">
-        <v>7</v>
-      </c>
-      <c r="J23" s="43">
-        <v>7</v>
-      </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="48"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75">
-      <c r="A24" s="38">
+      <c r="G23" s="36">
+        <v>7</v>
+      </c>
+      <c r="H23" s="38">
+        <v>7</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
         <v>8021</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="35">
         <v>9</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41">
-        <v>8</v>
-      </c>
-      <c r="F24" s="54">
+      <c r="D24" s="36">
+        <v>8</v>
+      </c>
+      <c r="E24" s="47">
         <v>5</v>
       </c>
-      <c r="G24" s="43">
+      <c r="F24" s="38">
         <v>9</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="49">
+      <c r="G24" s="42">
         <v>3</v>
       </c>
-      <c r="J24" s="43">
-        <v>8</v>
-      </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="63"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75">
-      <c r="A25" s="38">
+      <c r="H24" s="38">
+        <v>8</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
         <v>8022</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="35">
         <v>6</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41">
-        <v>7</v>
-      </c>
-      <c r="F25" s="42">
+      <c r="D25" s="36">
+        <v>7</v>
+      </c>
+      <c r="E25" s="37">
         <v>6.5</v>
       </c>
-      <c r="G25" s="43">
+      <c r="F25" s="38">
         <v>9</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="49">
+      <c r="G25" s="42">
         <v>5.5</v>
       </c>
-      <c r="J25" s="43">
-        <v>7</v>
-      </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="48"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75">
-      <c r="A26" s="38">
+      <c r="H25" s="38">
+        <v>7</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
         <v>8023</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="44">
         <v>4</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41">
+      <c r="D26" s="36">
         <v>8.5</v>
       </c>
-      <c r="F26" s="42">
-        <v>8</v>
-      </c>
-      <c r="G26" s="43">
+      <c r="E26" s="37">
+        <v>8</v>
+      </c>
+      <c r="F26" s="38">
         <v>6</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="49">
+      <c r="G26" s="42">
         <v>5</v>
       </c>
-      <c r="J26" s="52">
+      <c r="H26" s="45">
         <v>4</v>
       </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="48"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75">
-      <c r="A27" s="55">
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="48">
         <v>8024</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="49">
         <v>7.5</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="57">
-        <v>7</v>
-      </c>
-      <c r="F27" s="58">
+      <c r="D27" s="50">
+        <v>7</v>
+      </c>
+      <c r="E27" s="51">
         <v>6</v>
       </c>
-      <c r="G27" s="59">
-        <v>8</v>
-      </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="41">
+      <c r="F27" s="52">
+        <v>8</v>
+      </c>
+      <c r="G27" s="36">
         <v>10</v>
       </c>
-      <c r="J27" s="43">
-        <v>7</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="48"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75">
-      <c r="A28" s="38">
+      <c r="H27" s="38">
+        <v>7</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
         <v>8025</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="35">
         <v>7.5</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41">
-        <v>8</v>
-      </c>
-      <c r="F28" s="62">
-        <v>8</v>
-      </c>
-      <c r="G28" s="43">
+      <c r="D28" s="36">
+        <v>8</v>
+      </c>
+      <c r="E28" s="55">
+        <v>8</v>
+      </c>
+      <c r="F28" s="38">
         <v>10</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57">
-        <v>8</v>
-      </c>
-      <c r="J28" s="59">
+      <c r="G28" s="50">
+        <v>8</v>
+      </c>
+      <c r="H28" s="52">
         <v>10</v>
       </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="48"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75">
-      <c r="A29" s="38">
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
         <v>8026</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="83" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="49">
+      <c r="D29" s="42">
         <v>5.5</v>
       </c>
-      <c r="F29" s="62">
+      <c r="E29" s="55">
         <v>6</v>
       </c>
-      <c r="G29" s="43">
+      <c r="F29" s="38">
         <v>10</v>
       </c>
-      <c r="H29" s="65"/>
-      <c r="I29" s="12">
-        <v>8</v>
-      </c>
-      <c r="J29" s="43">
+      <c r="G29" s="12">
+        <v>8</v>
+      </c>
+      <c r="H29" s="38">
         <v>9</v>
       </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
       <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="74"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75">
-      <c r="A30" s="68">
+      <c r="L29" s="65"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="59">
         <v>8027</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="16">
         <v>6</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="69">
+      <c r="D30" s="60">
         <v>9</v>
       </c>
-      <c r="F30" s="70">
-        <v>7</v>
-      </c>
-      <c r="G30" s="71">
+      <c r="E30" s="61">
+        <v>7</v>
+      </c>
+      <c r="F30" s="62">
         <v>7.5</v>
       </c>
-      <c r="H30" s="65"/>
-      <c r="I30" s="12">
+      <c r="G30" s="12">
         <v>6</v>
       </c>
-      <c r="J30" s="14">
+      <c r="H30" s="14">
         <v>6</v>
       </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="65"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="74"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75">
-      <c r="A31" s="38">
+      <c r="L30" s="65"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="34">
         <v>8028</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="83" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="9">
         <v>8</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="41">
-        <v>8</v>
-      </c>
-      <c r="F31" s="42">
+      <c r="D31" s="36">
+        <v>8</v>
+      </c>
+      <c r="E31" s="37">
         <v>6</v>
       </c>
-      <c r="G31" s="43">
+      <c r="F31" s="38">
         <v>6</v>
       </c>
-      <c r="H31" s="65"/>
-      <c r="I31" s="12">
+      <c r="G31" s="12">
         <v>9.5</v>
       </c>
-      <c r="J31" s="14">
-        <v>8</v>
-      </c>
+      <c r="H31" s="14">
+        <v>8</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="74"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75">
-      <c r="A32" s="38">
+      <c r="L31" s="65"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
         <v>8029</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="83" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="9">
         <v>7</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="49">
+      <c r="D32" s="42">
         <v>4.5</v>
       </c>
-      <c r="F32" s="54">
+      <c r="E32" s="47">
         <v>5</v>
       </c>
-      <c r="G32" s="52">
+      <c r="F32" s="45">
         <v>4</v>
       </c>
-      <c r="H32" s="65"/>
-      <c r="I32" s="12">
-        <v>7</v>
-      </c>
-      <c r="J32" s="15">
+      <c r="G32" s="12">
+        <v>7</v>
+      </c>
+      <c r="H32" s="15">
         <v>4</v>
       </c>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
       <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="101"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75">
-      <c r="A33" s="38">
+      <c r="L32" s="90"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
         <v>8030</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="83" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="7">
         <v>4</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="49">
+      <c r="D33" s="42">
         <v>5</v>
       </c>
-      <c r="F33" s="42">
+      <c r="E33" s="37">
         <v>10</v>
       </c>
-      <c r="G33" s="43">
+      <c r="F33" s="38">
         <v>6</v>
       </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="41">
+      <c r="G33" s="36">
         <v>6</v>
       </c>
-      <c r="J33" s="14">
-        <v>7</v>
-      </c>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="74"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75">
-      <c r="A34" s="38">
+      <c r="H33" s="14">
+        <v>7</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="65"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="34">
         <v>8031</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="83" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="49">
+      <c r="D34" s="42">
         <v>4</v>
       </c>
-      <c r="F34" s="42">
-        <v>8</v>
-      </c>
-      <c r="G34" s="52">
+      <c r="E34" s="37">
+        <v>8</v>
+      </c>
+      <c r="F34" s="45">
         <v>2</v>
       </c>
-      <c r="H34" s="65"/>
-      <c r="I34" s="49">
+      <c r="G34" s="42">
         <v>3</v>
       </c>
-      <c r="J34" s="43">
-        <v>8</v>
-      </c>
+      <c r="H34" s="38">
+        <v>8</v>
+      </c>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
       <c r="K34" s="65"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="74"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75">
-      <c r="A35" s="38">
+      <c r="L34" s="65"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="34">
         <v>8032</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="83" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="9">
         <v>6</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="41">
-        <v>7</v>
-      </c>
-      <c r="F35" s="42">
-        <v>8</v>
-      </c>
-      <c r="G35" s="43">
+      <c r="D35" s="36">
+        <v>7</v>
+      </c>
+      <c r="E35" s="37">
+        <v>8</v>
+      </c>
+      <c r="F35" s="38">
         <v>9</v>
       </c>
-      <c r="H35" s="65"/>
-      <c r="I35" s="41">
-        <v>8</v>
-      </c>
-      <c r="J35" s="43">
+      <c r="G35" s="36">
+        <v>8</v>
+      </c>
+      <c r="H35" s="38">
         <v>9</v>
       </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
       <c r="K35" s="65"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="74"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75">
-      <c r="A36" s="38">
+      <c r="L35" s="65"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="34">
         <v>8033</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="83" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="9">
         <v>7</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="49">
+      <c r="D36" s="42">
         <v>5</v>
       </c>
-      <c r="F36" s="42">
+      <c r="E36" s="37">
         <v>7.5</v>
       </c>
-      <c r="G36" s="43">
+      <c r="F36" s="38">
         <v>6</v>
       </c>
-      <c r="H36" s="65"/>
-      <c r="I36" s="75">
+      <c r="G36" s="66">
         <v>6.5</v>
       </c>
-      <c r="J36" s="43">
-        <v>8</v>
-      </c>
+      <c r="H36" s="38">
+        <v>8</v>
+      </c>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
       <c r="K36" s="65"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="74"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75">
-      <c r="A37" s="38">
+      <c r="L36" s="65"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="34">
         <v>8034</v>
       </c>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="83" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="41">
-        <v>8</v>
-      </c>
-      <c r="F37" s="54">
+      <c r="D37" s="36">
+        <v>8</v>
+      </c>
+      <c r="E37" s="47">
         <v>5</v>
       </c>
-      <c r="G37" s="52">
+      <c r="F37" s="45">
         <v>3</v>
       </c>
-      <c r="H37" s="65"/>
-      <c r="I37" s="75">
-        <v>8</v>
-      </c>
-      <c r="J37" s="43">
-        <v>8</v>
-      </c>
+      <c r="G37" s="66">
+        <v>8</v>
+      </c>
+      <c r="H37" s="38">
+        <v>8</v>
+      </c>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
       <c r="K37" s="65"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="74"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75">
-      <c r="A38" s="38">
+      <c r="L37" s="65"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="34">
         <v>8035</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="83" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="9">
         <v>10</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="49" t="s">
+      <c r="D38" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="42">
-        <v>8</v>
-      </c>
-      <c r="G38" s="52">
+      <c r="E38" s="37">
+        <v>8</v>
+      </c>
+      <c r="F38" s="45">
         <v>4</v>
       </c>
-      <c r="H38" s="65"/>
-      <c r="I38" s="76">
+      <c r="G38" s="67">
         <v>5</v>
       </c>
-      <c r="J38" s="52">
+      <c r="H38" s="45">
         <v>4</v>
       </c>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
       <c r="K38" s="65"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="74"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75">
-      <c r="A39" s="38">
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="34">
         <v>8036</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="83" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="7">
         <v>5.5</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="49">
+      <c r="D39" s="42">
         <v>3</v>
       </c>
-      <c r="F39" s="54">
+      <c r="E39" s="47">
         <v>3</v>
       </c>
-      <c r="G39" s="52">
+      <c r="F39" s="45">
         <v>5</v>
       </c>
-      <c r="H39" s="65"/>
-      <c r="I39" s="75">
+      <c r="G39" s="66">
         <v>9.5</v>
       </c>
-      <c r="J39" s="43">
-        <v>7</v>
-      </c>
+      <c r="H39" s="38">
+        <v>7</v>
+      </c>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
       <c r="K39" s="65"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="74"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.75">
-      <c r="A40" s="38">
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="34">
         <v>8037</v>
       </c>
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="7">
         <v>3.5</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="41">
+      <c r="D40" s="36">
         <v>7.5</v>
       </c>
-      <c r="F40" s="54">
+      <c r="E40" s="47">
         <v>4</v>
       </c>
-      <c r="G40" s="43">
-        <v>8</v>
-      </c>
-      <c r="H40" s="65"/>
-      <c r="I40" s="75">
+      <c r="F40" s="38">
+        <v>8</v>
+      </c>
+      <c r="G40" s="66">
         <v>9</v>
       </c>
-      <c r="J40" s="43">
+      <c r="H40" s="38">
         <v>6</v>
       </c>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
       <c r="K40" s="65"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="74"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.75">
-      <c r="A41" s="38">
+      <c r="L40" s="65"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="34">
         <v>8038</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="83" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="9">
         <v>7.4</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="41">
-        <v>7</v>
-      </c>
-      <c r="F41" s="42">
-        <v>7</v>
-      </c>
-      <c r="G41" s="43">
+      <c r="D41" s="36">
+        <v>7</v>
+      </c>
+      <c r="E41" s="37">
+        <v>7</v>
+      </c>
+      <c r="F41" s="38">
         <v>10</v>
       </c>
-      <c r="H41" s="65"/>
-      <c r="I41" s="75">
-        <v>8</v>
-      </c>
-      <c r="J41" s="43">
+      <c r="G41" s="66">
+        <v>8</v>
+      </c>
+      <c r="H41" s="38">
         <v>8.5</v>
       </c>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="65"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="74"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.75">
-      <c r="A42" s="38">
+      <c r="L41" s="65"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="34">
         <v>8039</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="83" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="9">
         <v>8.6</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="41">
+      <c r="D42" s="36">
         <v>6.5</v>
       </c>
-      <c r="F42" s="42">
+      <c r="E42" s="37">
         <v>10</v>
       </c>
-      <c r="G42" s="43">
+      <c r="F42" s="38">
         <v>9.5</v>
       </c>
-      <c r="H42" s="65"/>
-      <c r="I42" s="75">
-        <v>7</v>
-      </c>
-      <c r="J42" s="52">
+      <c r="G42" s="66">
+        <v>7</v>
+      </c>
+      <c r="H42" s="45">
         <v>4</v>
       </c>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
       <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="74"/>
-    </row>
-    <row r="43" spans="1:17" ht="15.75">
-      <c r="A43" s="38">
+      <c r="L42" s="65"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="34">
         <v>8040</v>
       </c>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="83" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="9">
         <v>7</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="41">
-        <v>7</v>
-      </c>
-      <c r="F43" s="42">
+      <c r="D43" s="36">
+        <v>7</v>
+      </c>
+      <c r="E43" s="37">
         <v>9</v>
       </c>
-      <c r="G43" s="43">
+      <c r="F43" s="38">
         <v>8.5</v>
       </c>
-      <c r="H43" s="65"/>
-      <c r="I43" s="75">
-        <v>8</v>
-      </c>
-      <c r="J43" s="43">
-        <v>8</v>
-      </c>
+      <c r="G43" s="66">
+        <v>8</v>
+      </c>
+      <c r="H43" s="38">
+        <v>8</v>
+      </c>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
       <c r="K43" s="65"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="74"/>
-    </row>
-    <row r="44" spans="1:17" ht="15.75">
-      <c r="A44" s="38">
+      <c r="L43" s="65"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="34">
         <v>8041</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="83" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="9">
         <v>8</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="57">
+      <c r="D44" s="50">
         <v>10</v>
       </c>
-      <c r="F44" s="58">
-        <v>7</v>
-      </c>
-      <c r="G44" s="59">
+      <c r="E44" s="51">
+        <v>7</v>
+      </c>
+      <c r="F44" s="52">
         <v>7.5</v>
       </c>
-      <c r="H44" s="65"/>
-      <c r="I44" s="76">
+      <c r="G44" s="67">
         <v>5</v>
       </c>
-      <c r="J44" s="52">
+      <c r="H44" s="45">
         <v>5</v>
       </c>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
       <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="74"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.75">
-      <c r="A45" s="38">
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="34">
         <v>8042</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="83" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="7">
         <v>4.5</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="41">
-        <v>7</v>
-      </c>
-      <c r="F45" s="77">
+      <c r="D45" s="36">
+        <v>7</v>
+      </c>
+      <c r="E45" s="68">
         <v>3</v>
       </c>
-      <c r="G45" s="43">
+      <c r="F45" s="38">
         <v>6</v>
       </c>
-      <c r="H45" s="78"/>
-      <c r="I45" s="13">
+      <c r="G45" s="13">
         <v>10</v>
       </c>
-      <c r="J45" s="43">
+      <c r="H45" s="38">
         <v>9</v>
       </c>
-      <c r="K45" s="78"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="81"/>
-    </row>
-    <row r="46" spans="1:17" ht="15.75">
-      <c r="A46" s="38">
+      <c r="I45" s="69"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="34">
         <v>8043</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="9">
         <v>9</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="41">
+      <c r="D46" s="36">
         <v>9.5</v>
       </c>
-      <c r="F46" s="62">
-        <v>8</v>
-      </c>
-      <c r="G46" s="43">
-        <v>8</v>
-      </c>
-      <c r="H46" s="83"/>
-      <c r="I46" s="41">
-        <v>8</v>
-      </c>
-      <c r="J46" s="43">
+      <c r="E46" s="55">
+        <v>8</v>
+      </c>
+      <c r="F46" s="38">
+        <v>8</v>
+      </c>
+      <c r="G46" s="36">
+        <v>8</v>
+      </c>
+      <c r="H46" s="38">
         <v>9</v>
       </c>
-      <c r="K46" s="83"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="75"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75">
-      <c r="A47" s="38">
+      <c r="I46" s="72"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="34">
         <v>8044</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="94" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="9">
         <v>7</v>
       </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="41">
+      <c r="D47" s="36">
         <v>8.5</v>
       </c>
-      <c r="F47" s="62">
-        <v>7</v>
-      </c>
-      <c r="G47" s="43">
+      <c r="E47" s="55">
+        <v>7</v>
+      </c>
+      <c r="F47" s="38">
         <v>9</v>
       </c>
-      <c r="H47" s="83"/>
-      <c r="I47" s="41">
-        <v>7</v>
-      </c>
-      <c r="J47" s="51">
+      <c r="G47" s="36">
+        <v>7</v>
+      </c>
+      <c r="H47" s="44">
         <v>5</v>
       </c>
-      <c r="K47" s="83"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="75"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.75">
-      <c r="A48" s="38">
+      <c r="I47" s="72"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="34">
         <v>8045</v>
       </c>
-      <c r="B48" s="94" t="s">
+      <c r="B48" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="7">
         <v>5</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="41">
-        <v>8</v>
-      </c>
-      <c r="F48" s="62">
+      <c r="D48" s="36">
+        <v>8</v>
+      </c>
+      <c r="E48" s="55">
         <v>6</v>
       </c>
-      <c r="G48" s="52">
+      <c r="F48" s="45">
         <v>3</v>
       </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="41">
+      <c r="G48" s="36">
         <v>6.5</v>
       </c>
-      <c r="J48" s="39">
+      <c r="H48" s="35">
         <v>9</v>
       </c>
-      <c r="K48" s="83"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="75"/>
-    </row>
-    <row r="49" spans="1:17" ht="15.75">
-      <c r="A49" s="38">
+      <c r="I48" s="72"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="34">
         <v>8046</v>
       </c>
-      <c r="B49" s="94" t="s">
+      <c r="B49" s="83" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="9">
         <v>8</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="117">
+      <c r="D49" s="106">
         <v>4</v>
       </c>
-      <c r="F49" s="118">
+      <c r="E49" s="107">
         <v>10</v>
       </c>
-      <c r="G49" s="71">
+      <c r="F49" s="62">
         <v>6</v>
       </c>
-      <c r="H49" s="83"/>
-      <c r="I49" s="41">
-        <v>7</v>
-      </c>
-      <c r="J49" s="51">
+      <c r="G49" s="36">
+        <v>7</v>
+      </c>
+      <c r="H49" s="44">
         <v>4</v>
       </c>
-      <c r="K49" s="83"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="75"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75">
-      <c r="A50" s="38">
+      <c r="I49" s="72"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="34">
         <v>8047</v>
       </c>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="83" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="7">
         <v>4</v>
       </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="41">
+      <c r="D50" s="36">
         <v>9</v>
       </c>
-      <c r="F50" s="62">
+      <c r="E50" s="55">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G50" s="52">
+      <c r="F50" s="45">
         <v>4</v>
       </c>
-      <c r="H50" s="83"/>
-      <c r="I50" s="41">
+      <c r="G50" s="36">
         <v>10</v>
       </c>
-      <c r="J50" s="39">
+      <c r="H50" s="35">
         <v>6.5</v>
       </c>
-      <c r="K50" s="83"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="75"/>
-    </row>
-    <row r="51" spans="1:17" ht="15.75">
-      <c r="A51" s="38">
+      <c r="I50" s="72"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
         <v>8048</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="83" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="9">
         <v>9</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="41">
+      <c r="D51" s="36">
         <v>8.5</v>
       </c>
-      <c r="F51" s="62">
+      <c r="E51" s="55">
         <v>9</v>
       </c>
-      <c r="G51" s="43">
+      <c r="F51" s="38">
         <v>9</v>
       </c>
-      <c r="H51" s="83"/>
-      <c r="I51" s="49">
+      <c r="G51" s="42">
         <v>5.5</v>
       </c>
-      <c r="J51" s="39">
-        <v>7</v>
-      </c>
-      <c r="K51" s="83"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="75"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75">
-      <c r="A52" s="55">
+      <c r="H51" s="35">
+        <v>7</v>
+      </c>
+      <c r="I51" s="72"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="48">
         <v>8049</v>
       </c>
-      <c r="B52" s="96" t="s">
+      <c r="B52" s="85" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="10">
         <v>7</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="119">
+      <c r="D52" s="108">
         <v>4</v>
       </c>
-      <c r="F52" s="120">
+      <c r="E52" s="109">
         <v>9.5</v>
       </c>
-      <c r="G52" s="59">
+      <c r="F52" s="52">
         <v>7.8</v>
       </c>
-      <c r="H52" s="83"/>
-      <c r="I52" s="41">
-        <v>8</v>
-      </c>
-      <c r="J52" s="39">
+      <c r="G52" s="36">
+        <v>8</v>
+      </c>
+      <c r="H52" s="35">
         <v>9</v>
       </c>
-      <c r="K52" s="83"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="87"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75">
-      <c r="A53" s="106">
+      <c r="I52" s="74"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+    </row>
+    <row r="53" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="95">
         <v>8050</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="96" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="8">
         <v>5</v>
       </c>
-      <c r="D53" s="88"/>
-      <c r="E53" s="108">
+      <c r="D53" s="97">
         <v>10</v>
       </c>
-      <c r="F53" s="121">
+      <c r="E53" s="110">
         <v>5.5</v>
       </c>
-      <c r="G53" s="126">
+      <c r="F53" s="111">
         <v>4</v>
       </c>
-      <c r="H53" s="83"/>
-      <c r="I53" s="108">
-        <v>7</v>
-      </c>
-      <c r="J53" s="109">
-        <v>7</v>
-      </c>
-      <c r="K53" s="83"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="104"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="91"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="G53" s="97">
+        <v>7</v>
+      </c>
+      <c r="H53" s="98">
+        <v>7</v>
+      </c>
+      <c r="I53" s="78"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:17">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="D2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3431,6 +3110,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010050BD0005AFC9664893A9CC4424F40713" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="643c871a2b6809ca26cd1d73b0b37dd7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c1da97ad-02fe-4b5a-8bbb-dedcb0dc29e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f922fb2853eb86fec36a60b74879a7b" ns2:_="">
     <xsd:import namespace="c1da97ad-02fe-4b5a-8bbb-dedcb0dc29e4"/>
@@ -3606,23 +3294,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D8CA83-F076-477D-A502-93FEE2E366BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D8CA83-F076-477D-A502-93FEE2E366BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B2602B-DB19-43D4-A437-67C3B839AEEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CC935B-B013-4A24-905F-4BBE52BCC54B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CC935B-B013-4A24-905F-4BBE52BCC54B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B2602B-DB19-43D4-A437-67C3B839AEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1da97ad-02fe-4b5a-8bbb-dedcb0dc29e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/notas_planilha_modelo.xlsx
+++ b/notas_planilha_modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandroyyy\OneDrive\Fiap\Aula Logica\ponto extra\Entrega-CTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB933B7-C6D3-40EC-809C-843FAF7E6365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2199B31C-937F-4767-85DE-E2AA0E953854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AEC9B240-086D-4A5F-970A-55B671366498}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +348,27 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -869,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,6 +1185,12 @@
     <xf numFmtId="164" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,6 +1199,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A175AD0E-438F-491D-98EF-05FF36FEA0E7}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1517,15 +1547,15 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1602,8 +1632,8 @@
       <c r="B5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26">
-        <v>7</v>
+      <c r="C5" s="117">
+        <v>2</v>
       </c>
       <c r="D5" s="102">
         <v>8</v>
@@ -1611,11 +1641,11 @@
       <c r="E5" s="103">
         <v>5</v>
       </c>
-      <c r="F5" s="104">
-        <v>9</v>
-      </c>
-      <c r="G5" s="27">
-        <v>9</v>
+      <c r="F5" s="112">
+        <v>0</v>
+      </c>
+      <c r="G5" s="113">
+        <v>4</v>
       </c>
       <c r="H5" s="28">
         <v>6</v>
@@ -3100,6 +3130,7 @@
     <mergeCell ref="D2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/notas_planilha_modelo.xlsx
+++ b/notas_planilha_modelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandroyyy\OneDrive\Fiap\Aula Logica\ponto extra\Entrega-CTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f3829fffd8e5655/Fiap/Aula Logica/ponto extra/Entrega-CTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2199B31C-937F-4767-85DE-E2AA0E953854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2199B31C-937F-4767-85DE-E2AA0E953854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A2259D-A7BF-4113-8C23-80FF10B4BE85}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AEC9B240-086D-4A5F-970A-55B671366498}"/>
   </bookViews>
@@ -1191,17 +1191,17 @@
     <xf numFmtId="164" fontId="18" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,7 +1520,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,15 +1547,15 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:12" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1603,19 +1603,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="99">
         <v>10</v>
       </c>
       <c r="E4" s="100">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="23">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="H4" s="24">
         <v>10</v>
@@ -1632,7 +1632,7 @@
       <c r="B5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="114">
         <v>2</v>
       </c>
       <c r="D5" s="102">
@@ -3135,18 +3135,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3326,18 +3326,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D8CA83-F076-477D-A502-93FEE2E366BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CC935B-B013-4A24-905F-4BBE52BCC54B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92CC935B-B013-4A24-905F-4BBE52BCC54B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D8CA83-F076-477D-A502-93FEE2E366BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
